--- a/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,17</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-17,7; -0,01</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 24,38</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-17,54; 0,46</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2,61; 19,37</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; -2,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 19,44</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>-27,29%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47,7%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-25,94%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>31,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,11%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-47,77; -0,74</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 88,15</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-45,36; 2,12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,54; 67,08</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,32; -7,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,19; 66,25</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,87</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,15; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,31; 9,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,06; 18,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,86; 7,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 13,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 14,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,88; 3,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 9,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 14,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,13%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,94%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,56%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,31; 16,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,68; 41,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,84; 81,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,29; 32,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,26; 55,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,13; 62,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,0; 13,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,28; 40,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,88; 58,27</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,97</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; -0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,15; 0,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 11,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 6,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,13; 8,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 5,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 1,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 2,47</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,9%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,3%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,89; 5,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,52; 0,18</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,83; 0,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,39; 52,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,65; 29,43</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,29; 38,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,74; 19,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,71; 4,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,45; 9,28</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,04; 4,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,91; 2,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,95; 29,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,25; 6,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,87; 3,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,21; 22,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,27; 2,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,01; 0,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,91; 23,07</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,91%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,23%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,96%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,39%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,29; 18,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,67; 10,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,57; 110,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,11; 27,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,64; 12,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,35; 90,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,32; 10,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,58; 3,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,71; 88,77</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>47,01</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>66,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>45,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>63,95</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>46,17</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>65,22</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 11,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,42; 56,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,3; 73,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 13,89</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,98; 54,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>56,74; 70,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,6; 9,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,28; 52,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>60,03; 70,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>227,88%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>321,99%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>187,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>265,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,51%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>206,13%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>291,17%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,61; 68,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>139,44; 345,68</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>224,44; 478,36</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,7; 74,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>116,92; 291,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>182,56; 385,08</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,91; 52,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>149,34; 282,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>221,01; 379,55</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,02</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,35</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,35</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,76</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,57</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,01</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,3; 4,5</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,55; -3,51</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,51; -9,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,72; 1,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 7,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,9; -5,63</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 0,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,58; -0,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,61; -8,97</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,44%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,95%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,63%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,88%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,91; 14,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,34; -10,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,59; -30,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,74; 7,11</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; 25,97</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,43; -19,02</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 1,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,07; -2,45</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,95; -29,67</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,7</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,47</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>28,45</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,48; 7,2</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 11,77</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,52; 26,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,25; 12,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,93; 14,04</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,36; 48,2</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 8,01</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,15; 11,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,28; 37,1</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,54%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,65%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,17%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,33%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,37%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,52; 31,39</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 50,43</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>47,9; 112,87</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 54,64</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,02; 61,2</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>72,3; 212,43</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,24; 34,35</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,22; 47,58</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>69,83; 151,57</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,79</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,91</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,38</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,81</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,32</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,03</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,09; 17,88</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,21; 28,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,18; 35,65</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 9,1</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,99; 23,7</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,94; 39,87</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 11,51</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,54; 23,91</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,34; 36,06</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,14%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,06%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,74%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,94%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,35%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,15%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,54%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,28; 66,36</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>50,56; 104,38</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>57,58; 131,86</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,55; 29,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,77; 76,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>80,38; 131,44</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,74; 37,73</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>48,38; 79,45</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>76,18; 120,23</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,23</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,19</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,68</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,63; 3,79</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,35; 8,8</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,89; 20,88</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 4,34</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 10,47</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,1; 26,29</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,07; 3,45</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 9,08</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,57; 22,62</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,03%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,89%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,17%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,43; 14,0</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,23; 32,68</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>49,38; 76,83</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 15,54</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,08; 37,38</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,76; 89,71</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 12,28</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,37; 32,8</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,31; 79,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>15,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,03</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,17</t>
+          <t>13,14</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,95; 1,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,64; 24,38</t>
+          <t>5,14; 25,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,07; -0,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 19,37</t>
+          <t>1,8; 18,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,21; -1,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,92; 19,44</t>
+          <t>6,64; 19,86</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>47,7%</t>
+          <t>48,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>39,0%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,85; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,17; 88,15</t>
+          <t>13,32; 92,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,09; 0,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,54; 67,08</t>
+          <t>4,18; 64,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,4; -5,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 66,25</t>
+          <t>17,35; 66,86</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,32</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,87</t>
+          <t>10,3</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 18,46</t>
+          <t>4,37; 19,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 14,26</t>
+          <t>2,7; 14,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 14,1</t>
+          <t>5,98; 14,65</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>43,93%</t>
+          <t>46,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,81%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>39,21%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,84; 81,01</t>
+          <t>15,93; 84,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,13; 62,81</t>
+          <t>8,89; 62,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,88; 58,27</t>
+          <t>19,94; 60,83</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,97</t>
+          <t>-6,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,59</t>
+          <t>-2,51</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,15; 0,01</t>
+          <t>-15,04; 0,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 8,24</t>
+          <t>-4,98; 8,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 2,47</t>
+          <t>-7,54; 2,73</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>-22,59%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-8,99%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 0,24</t>
+          <t>-42,65; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 38,51</t>
+          <t>-16,81; 38,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 9,28</t>
+          <t>-25,11; 10,18</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,76</t>
+          <t>20,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>13,19</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 4,6</t>
+          <t>-8,5; 7,16</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,95; 29,2</t>
+          <t>11,21; 29,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 6,57</t>
+          <t>-5,73; 8,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,21; 22,74</t>
+          <t>-7,87; 18,39</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 2,71</t>
+          <t>-4,84; 5,63</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,91; 23,07</t>
+          <t>1,86; 20,13</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>69,87%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>55,23%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-4,26%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61,39%</t>
+          <t>45,16%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,29; 18,18</t>
+          <t>-24,44; 27,63</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,57; 110,45</t>
+          <t>33,44; 110,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 27,0</t>
+          <t>-17,44; 31,89</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,35; 90,0</t>
+          <t>-20,22; 67,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 10,49</t>
+          <t>-15,51; 21,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,71; 88,77</t>
+          <t>6,8; 73,15</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>66,43</t>
+          <t>66,44</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>63,95</t>
+          <t>63,9</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>65,22</t>
+          <t>65,2</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>59,3; 73,33</t>
+          <t>59,3; 73,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,74; 70,82</t>
+          <t>56,79; 70,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60,03; 70,1</t>
+          <t>60,02; 70,07</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>321,99%</t>
+          <t>322,07%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>265,01%</t>
+          <t>264,81%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>291,17%</t>
+          <t>291,08%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>224,44; 478,36</t>
+          <t>224,22; 477,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>182,56; 385,08</t>
+          <t>182,35; 384,86</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>221,01; 379,55</t>
+          <t>220,79; 379,75</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-17,35</t>
+          <t>-17,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-12,76</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-15,01</t>
+          <t>-15,1</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,51; -9,33</t>
+          <t>-25,49; -9,29</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-21,9; -5,63</t>
+          <t>-22,03; -5,72</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -8,97</t>
+          <t>-20,75; -9,09</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-48,95%</t>
+          <t>-49,08%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-38,63%</t>
+          <t>-38,94%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-43,88%</t>
+          <t>-44,16%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,59; -30,12</t>
+          <t>-63,64; -29,96</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,43; -19,02</t>
+          <t>-55,6; -19,17</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-54,95; -29,67</t>
+          <t>-55,22; -29,99</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,7</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>28,45</t>
+          <t>34,13</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>25,04</t>
+          <t>28,44</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,52; 26,58</t>
+          <t>14,53; 26,86</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,36; 48,2</t>
+          <t>19,46; 57,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,28; 37,1</t>
+          <t>19,47; 46,27</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>111,28%</t>
+          <t>133,47%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>109,49%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>47,9; 112,87</t>
+          <t>47,45; 112,86</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>72,3; 212,43</t>
+          <t>74,53; 264,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>69,83; 151,57</t>
+          <t>71,65; 187,2</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>29,38</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>32,03</t>
+          <t>23,94</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>16,18; 35,65</t>
+          <t>-10,84; 34,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>29,94; 39,87</t>
+          <t>29,94; 39,81</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>25,34; 36,06</t>
+          <t>0,63; 35,0</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>53,68%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>99,54%</t>
+          <t>74,41%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>57,58; 131,86</t>
+          <t>-32,36; 119,1</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>80,38; 131,44</t>
+          <t>80,43; 131,1</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>76,18; 120,23</t>
+          <t>2,56; 111,4</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>18,23</t>
+          <t>14,93</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>20,96</t>
+          <t>20,69</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>19,68</t>
+          <t>17,9</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,88</t>
+          <t>4,74; 19,51</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>18,1; 26,29</t>
+          <t>16,32; 30,22</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>17,57; 22,62</t>
+          <t>12,68; 22,35</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>52,19%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>72,03%</t>
+          <t>71,1%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>68,17%</t>
+          <t>62,0%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>49,38; 76,83</t>
+          <t>17,66; 69,78</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>58,76; 89,71</t>
+          <t>54,28; 104,99</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>59,31; 79,51</t>
+          <t>43,71; 78,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,95; 1,23</t>
+          <t>-16,5; 1,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -0,01</t>
+          <t>-17,55; -0,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 25,1</t>
+          <t>5,55; 25,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,07; -0,06</t>
+          <t>-17,32; 0,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 0,46</t>
+          <t>-17,21; -0,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,8; 18,78</t>
+          <t>1,51; 19,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; -1,58</t>
+          <t>-13,94; -1,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,99; -2,12</t>
+          <t>-15,21; -3,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,64; 19,86</t>
+          <t>5,93; 19,91</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 4,52</t>
+          <t>-43,55; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,77; -0,74</t>
+          <t>-47,76; -0,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 92,35</t>
+          <t>14,53; 89,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-45,09; 0,13</t>
+          <t>-44,26; 1,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,36; 2,12</t>
+          <t>-44,38; -2,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 64,58</t>
+          <t>3,37; 65,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-40,4; -5,48</t>
+          <t>-37,45; -4,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,32; -7,08</t>
+          <t>-41,19; -10,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 66,86</t>
+          <t>15,33; 66,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 3,66</t>
+          <t>-8,69; 3,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 9,59</t>
+          <t>-3,95; 8,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 19,31</t>
+          <t>4,71; 19,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,44</t>
+          <t>-4,39; 7,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,49</t>
+          <t>0,23; 13,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 14,55</t>
+          <t>2,86; 14,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 3,37</t>
+          <t>-4,74; 4,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,04; 9,44</t>
+          <t>0,53; 10,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 14,65</t>
+          <t>5,83; 15,26</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 16,41</t>
+          <t>-30,68; 16,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 41,94</t>
+          <t>-14,65; 39,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,93; 84,81</t>
+          <t>16,39; 85,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 32,14</t>
+          <t>-15,45; 33,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 55,83</t>
+          <t>0,87; 54,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 62,61</t>
+          <t>9,66; 59,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 13,92</t>
+          <t>-16,81; 17,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 40,41</t>
+          <t>1,54; 43,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 60,83</t>
+          <t>19,76; 62,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 1,61</t>
+          <t>-14,45; 2,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,32; -0,0</t>
+          <t>-15,92; -0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,04; 0,04</t>
+          <t>-14,43; 0,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 11,71</t>
+          <t>-2,39; 11,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 6,09</t>
+          <t>-7,69; 6,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 8,27</t>
+          <t>-5,51; 7,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 5,09</t>
+          <t>-6,38; 4,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 1,2</t>
+          <t>-8,87; 0,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,73</t>
+          <t>-7,81; 2,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,89; 5,08</t>
+          <t>-41,41; 9,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,52; 0,18</t>
+          <t>-44,21; 1,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 0,91</t>
+          <t>-41,66; 1,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 52,63</t>
+          <t>-8,37; 52,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,65; 29,43</t>
+          <t>-25,53; 29,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,81; 38,94</t>
+          <t>-19,24; 37,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 19,97</t>
+          <t>-20,67; 15,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,71; 4,79</t>
+          <t>-28,8; 3,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 10,18</t>
+          <t>-25,39; 8,56</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 7,16</t>
+          <t>-8,56; 7,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 2,66</t>
+          <t>-12,24; 2,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,21; 29,4</t>
+          <t>10,24; 29,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 8,15</t>
+          <t>-5,66; 8,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 3,06</t>
+          <t>-10,38; 3,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 18,39</t>
+          <t>-6,17; 18,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 5,63</t>
+          <t>-4,7; 5,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,84</t>
+          <t>-9,37; 1,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 20,13</t>
+          <t>1,15; 20,68</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 27,63</t>
+          <t>-25,75; 27,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 10,2</t>
+          <t>-35,91; 12,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>33,44; 110,86</t>
+          <t>30,5; 115,77</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,44; 31,89</t>
+          <t>-17,1; 35,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 12,61</t>
+          <t>-32,49; 13,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 67,99</t>
+          <t>-18,57; 70,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 21,26</t>
+          <t>-14,81; 22,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 3,09</t>
+          <t>-29,45; 4,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 73,15</t>
+          <t>4,98; 75,81</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,09</t>
+          <t>-6,49; 10,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36,42; 56,62</t>
+          <t>35,77; 56,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>59,3; 73,29</t>
+          <t>58,69; 73,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 13,89</t>
+          <t>-5,25; 13,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>34,98; 54,83</t>
+          <t>35,17; 54,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>56,79; 70,79</t>
+          <t>55,92; 70,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 9,56</t>
+          <t>-3,29; 9,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>38,28; 52,96</t>
+          <t>39,26; 52,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60,02; 70,07</t>
+          <t>59,83; 70,07</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,61; 68,83</t>
+          <t>-26,96; 63,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>139,44; 345,68</t>
+          <t>137,18; 359,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>224,22; 477,61</t>
+          <t>221,33; 506,32</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 74,0</t>
+          <t>-17,06; 68,18</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>116,92; 291,59</t>
+          <t>117,71; 291,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>182,35; 384,86</t>
+          <t>181,11; 375,09</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 52,76</t>
+          <t>-12,51; 48,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>149,34; 282,06</t>
+          <t>144,78; 278,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>220,79; 379,75</t>
+          <t>224,91; 374,11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 4,5</t>
+          <t>-13,66; 4,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -3,51</t>
+          <t>-20,64; -4,1</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-25,49; -9,29</t>
+          <t>-25,98; -9,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-14,72; 1,93</t>
+          <t>-14,46; 1,83</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 7,45</t>
+          <t>-10,19; 7,46</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-22,03; -5,72</t>
+          <t>-21,01; -5,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 0,51</t>
+          <t>-11,72; 0,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -0,68</t>
+          <t>-12,44; -0,22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-20,75; -9,09</t>
+          <t>-20,96; -9,42</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-35,91; 14,42</t>
+          <t>-34,22; 14,64</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -10,5</t>
+          <t>-51,68; -12,52</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,64; -29,96</t>
+          <t>-63,76; -31,13</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-39,74; 7,11</t>
+          <t>-39,34; 6,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 25,97</t>
+          <t>-27,9; 25,74</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-55,6; -19,17</t>
+          <t>-55,17; -20,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 1,72</t>
+          <t>-31,3; 2,5</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-34,07; -2,45</t>
+          <t>-33,51; -1,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,22; -29,99</t>
+          <t>-55,31; -31,46</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 7,2</t>
+          <t>-4,24; 6,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 11,77</t>
+          <t>-0,01; 12,12</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>14,53; 26,86</t>
+          <t>13,58; 26,48</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1,25; 12,18</t>
+          <t>1,14; 12,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>2,93; 14,04</t>
+          <t>2,68; 14,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>19,46; 57,05</t>
+          <t>18,85; 58,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,01</t>
+          <t>0,04; 7,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>3,15; 11,55</t>
+          <t>3,06; 11,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,47; 46,27</t>
+          <t>19,29; 46,72</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 31,39</t>
+          <t>-14,94; 28,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 50,43</t>
+          <t>0,07; 51,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>47,45; 112,86</t>
+          <t>45,56; 113,07</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>4,23; 54,64</t>
+          <t>4,08; 53,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>11,02; 61,2</t>
+          <t>9,65; 63,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>74,53; 264,17</t>
+          <t>71,42; 247,41</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 34,35</t>
+          <t>0,31; 32,08</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>11,22; 47,58</t>
+          <t>10,69; 46,71</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>71,65; 187,2</t>
+          <t>72,12; 190,79</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>6,09; 17,88</t>
+          <t>6,14; 17,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17,21; 28,68</t>
+          <t>17,14; 28,47</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 34,48</t>
+          <t>-9,6; 35,01</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 9,1</t>
+          <t>-1,8; 9,28</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>11,99; 23,7</t>
+          <t>12,62; 23,67</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>29,94; 39,81</t>
+          <t>29,93; 40,05</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,51</t>
+          <t>3,28; 11,4</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>16,54; 23,91</t>
+          <t>16,28; 24,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,63; 35,0</t>
+          <t>-1,73; 35,14</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>18,28; 66,36</t>
+          <t>18,36; 64,33</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>50,56; 104,38</t>
+          <t>50,41; 107,66</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-32,36; 119,1</t>
+          <t>-30,18; 120,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 29,2</t>
+          <t>-4,87; 29,98</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>31,77; 76,84</t>
+          <t>34,37; 76,08</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>80,43; 131,1</t>
+          <t>79,38; 131,04</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>10,74; 37,73</t>
+          <t>9,25; 37,64</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>48,38; 79,45</t>
+          <t>46,87; 80,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>2,56; 111,4</t>
+          <t>-4,8; 111,54</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 3,79</t>
+          <t>-1,54; 3,66</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>3,35; 8,8</t>
+          <t>3,48; 8,79</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>4,74; 19,51</t>
+          <t>5,72; 19,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,34</t>
+          <t>-0,17; 4,61</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,47</t>
+          <t>5,48; 10,66</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>16,32; 30,22</t>
+          <t>16,34; 30,13</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 3,45</t>
+          <t>-0,25; 3,22</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>5,44; 9,08</t>
+          <t>5,2; 8,92</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>12,68; 22,35</t>
+          <t>12,9; 22,36</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 14,0</t>
+          <t>-5,24; 13,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>11,23; 32,68</t>
+          <t>11,52; 32,0</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>17,66; 69,78</t>
+          <t>20,64; 69,24</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 15,54</t>
+          <t>-0,52; 16,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>18,08; 37,38</t>
+          <t>18,18; 38,44</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>54,28; 104,99</t>
+          <t>54,66; 105,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,28</t>
+          <t>-0,83; 11,66</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>18,37; 32,8</t>
+          <t>17,38; 31,98</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>43,71; 78,79</t>
+          <t>44,04; 79,34</t>
         </is>
       </c>
     </row>
